--- a/REVER_DailyTracker_20200910.xlsx
+++ b/REVER_DailyTracker_20200910.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B03249-AADB-4245-8193-395C33CCDC69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6820917-3947-4AE7-8F5C-DEA2CF14BD90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="17">
   <si>
     <t>No</t>
   </si>
@@ -76,6 +76,12 @@
   <si>
     <t xml:space="preserve">Regression testing on B2C , Hayaai and Vastu shashtra site </t>
   </si>
+  <si>
+    <t>VASTU</t>
+  </si>
+  <si>
+    <t>Testing Issues Fix  and New enhancement</t>
+  </si>
 </sst>
 </file>
 
@@ -84,7 +90,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +138,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -230,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -300,6 +320,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -688,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -932,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -974,9 +1001,15 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="32">
+        <v>44084</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>

--- a/REVER_DailyTracker_20200910.xlsx
+++ b/REVER_DailyTracker_20200910.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112CBD02-7C46-4EEA-9815-73149F388834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141E90AE-288E-418F-8509-029A937445F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10596" yWindow="408" windowWidth="12444" windowHeight="11952" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve">mobile view feedback page fixed                                              </t>
+  </si>
+  <si>
+    <t>Hayaai-B2B task</t>
+  </si>
+  <si>
+    <t>Trying to complete issues from issue tracker</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1227,10 +1233,18 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1297,7 +1311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
